--- a/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表_磐石组.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.4.6 20161103\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
-    <sheet name="版本kafka新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.0.4.6新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -128,56 +132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>afka升级</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sho'yjin'rying'shousuan'ftiao'zh</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP、房东PC、BS(sync)、官网、租客APP</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <rPh sb="0" eb="1">
-      <t>y'b'q</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-    <rPh sb="0" eb="1">
-      <t>jie'bao'z</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -185,12 +139,41 @@
     <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>BS</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博、傅其亮</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司业务指标统计优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -284,7 +267,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -305,12 +289,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1539,7 +1517,7 @@
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2225,14 +2203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="49.125" style="20" bestFit="1" customWidth="1"/>
@@ -2257,7 +2235,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2316,49 +2294,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="49.5">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="34">
-        <v>42671</v>
+        <v>42674</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="34">
-        <v>42671</v>
+        <v>42674</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N2" s="34">
-        <v>42675</v>
+        <v>42677</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -2366,7 +2344,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>9</v>
       </c>
@@ -2390,7 +2368,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>10</v>
       </c>
@@ -2414,7 +2392,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>11</v>
       </c>
@@ -2438,7 +2416,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>12</v>
       </c>
@@ -2462,7 +2440,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>13</v>
       </c>
@@ -2486,7 +2464,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>14</v>
       </c>
@@ -2510,7 +2488,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>15</v>
       </c>
@@ -2534,7 +2512,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>16</v>
       </c>
@@ -2558,7 +2536,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>17</v>
       </c>
@@ -2582,7 +2560,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>18</v>
       </c>
@@ -2606,7 +2584,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>19</v>
       </c>
@@ -2630,7 +2608,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -2652,7 +2630,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="8"/>
       <c r="C15" s="12"/>
@@ -2674,7 +2652,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
@@ -2696,7 +2674,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="8"/>
       <c r="C17" s="12"/>
@@ -2718,7 +2696,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="8"/>
       <c r="C18" s="12"/>
@@ -2740,7 +2718,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -2762,7 +2740,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -2784,7 +2762,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -2806,7 +2784,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -2828,7 +2806,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -2850,7 +2828,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -2872,7 +2850,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -2894,7 +2872,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -2916,7 +2894,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -2938,7 +2916,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -2960,7 +2938,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -2982,7 +2960,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -3004,7 +2982,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -3026,7 +3004,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -3048,7 +3026,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -3070,7 +3048,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -3092,7 +3070,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -3114,7 +3092,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -3136,7 +3114,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -3158,7 +3136,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -3180,7 +3158,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -3202,7 +3180,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -3224,7 +3202,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -3246,7 +3224,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -3268,7 +3246,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -3290,7 +3268,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -3312,7 +3290,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -3334,7 +3312,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -3356,7 +3334,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -3378,7 +3356,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -3400,7 +3378,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -3422,7 +3400,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -3444,7 +3422,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -3466,7 +3444,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="17"/>
       <c r="C52" s="9"/>
@@ -3488,7 +3466,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="17"/>
       <c r="C53" s="9"/>
@@ -3510,7 +3488,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -3531,7 +3509,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -3552,7 +3530,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3573,7 +3551,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3594,7 +3572,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3615,7 +3593,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3636,7 +3614,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3657,7 +3635,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3678,7 +3656,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3699,7 +3677,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3720,7 +3698,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3741,7 +3719,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3762,7 +3740,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3783,7 +3761,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3804,7 +3782,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3825,7 +3803,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3846,7 +3824,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3867,7 +3845,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3888,7 +3866,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3909,7 +3887,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3930,7 +3908,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3951,7 +3929,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3972,7 +3950,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3993,7 +3971,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4014,7 +3992,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4035,7 +4013,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4056,7 +4034,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -4077,7 +4055,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -4098,7 +4076,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -4119,7 +4097,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -4140,7 +4118,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -4161,7 +4139,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -4182,7 +4160,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -4203,7 +4181,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -4224,7 +4202,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -4245,7 +4223,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -4266,7 +4244,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -4287,7 +4265,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -4308,7 +4286,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -4329,7 +4307,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -4350,7 +4328,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -4371,7 +4349,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -4392,7 +4370,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -4413,7 +4391,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -4434,7 +4412,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -4455,7 +4433,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -4476,7 +4454,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -4497,7 +4475,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -4518,7 +4496,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -4539,7 +4517,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -4560,7 +4538,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -4581,7 +4559,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -4602,7 +4580,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -4623,7 +4601,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -4644,7 +4622,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -4665,7 +4643,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -4686,7 +4664,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -4707,7 +4685,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -4728,7 +4706,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -4749,7 +4727,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -4770,7 +4748,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -4791,7 +4769,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -4812,7 +4790,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4833,7 +4811,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4854,7 +4832,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4875,7 +4853,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4896,7 +4874,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4917,7 +4895,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4938,7 +4916,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4959,7 +4937,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4980,7 +4958,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -5001,7 +4979,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -5022,7 +5000,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -5043,7 +5021,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -5064,7 +5042,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -5085,7 +5063,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -5106,7 +5084,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -5127,7 +5105,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -5148,7 +5126,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -5169,7 +5147,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -5190,7 +5168,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -5211,7 +5189,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -5232,7 +5210,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -5253,7 +5231,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -5274,7 +5252,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -5295,7 +5273,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -5316,7 +5294,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -5337,7 +5315,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -5358,7 +5336,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -5379,7 +5357,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -5400,7 +5378,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -5421,7 +5399,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -5442,7 +5420,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -5463,7 +5441,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -5484,7 +5462,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -5505,7 +5483,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -5526,7 +5504,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -5547,7 +5525,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -5568,7 +5546,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -5589,7 +5567,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -5610,7 +5588,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -5631,7 +5609,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -5652,7 +5630,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -5673,7 +5651,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -5694,7 +5672,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -5715,7 +5693,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -5736,7 +5714,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -5757,7 +5735,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -5778,7 +5756,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -5799,7 +5777,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -5820,7 +5798,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -5841,7 +5819,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -5862,7 +5840,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -5883,7 +5861,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -5904,7 +5882,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -5925,7 +5903,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -5946,7 +5924,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -5967,7 +5945,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5988,7 +5966,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -6009,7 +5987,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -6030,7 +6008,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -6051,7 +6029,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -6069,7 +6047,7 @@
       <c r="O175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -6087,7 +6065,7 @@
       <c r="O176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -6105,7 +6083,7 @@
       <c r="O177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -6123,7 +6101,7 @@
       <c r="O178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -6141,7 +6119,7 @@
       <c r="O179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -6159,7 +6137,7 @@
       <c r="O180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -6177,7 +6155,7 @@
       <c r="O181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -6195,7 +6173,7 @@
       <c r="O182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -6213,7 +6191,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -6231,7 +6209,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -6249,7 +6227,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -6267,7 +6245,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -6285,7 +6263,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -6303,7 +6281,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -6321,7 +6299,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -6339,7 +6317,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -6357,7 +6335,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -6375,7 +6353,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -6393,7 +6371,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -6411,7 +6389,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -6429,7 +6407,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -6447,7 +6425,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -6465,7 +6443,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -6483,7 +6461,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -6501,7 +6479,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -6519,7 +6497,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -6537,7 +6515,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -6555,7 +6533,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -6573,7 +6551,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -6591,7 +6569,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -6609,7 +6587,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -6627,7 +6605,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -6645,7 +6623,7 @@
       <c r="O207" s="4"/>
       <c r="S207" s="4"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
       <c r="C208" s="7"/>
@@ -6663,7 +6641,7 @@
       <c r="O208" s="4"/>
       <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="4"/>
       <c r="C209" s="7"/>
@@ -6689,14 +6667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -6707,7 +6685,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -6733,7 +6711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -6743,7 +6721,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -6753,7 +6731,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -6763,7 +6741,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -6773,7 +6751,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -6783,7 +6761,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -6793,7 +6771,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -6803,7 +6781,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6813,7 +6791,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6823,7 +6801,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -6833,7 +6811,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -6843,7 +6821,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -6853,7 +6831,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -6863,7 +6841,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -6873,7 +6851,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -6883,7 +6861,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -6893,7 +6871,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -6903,7 +6881,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
